--- a/Steel Members Dimensions.xlsx
+++ b/Steel Members Dimensions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536986E-14E9-44A6-9D45-33FC13085072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6858534-BAD6-4E94-9B3C-9267B4369FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>mm</t>
   </si>
@@ -159,13 +160,40 @@
   </si>
   <si>
     <t>IPE</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Velikost</t>
+  </si>
+  <si>
+    <t>Hmotnost</t>
+  </si>
+  <si>
+    <t>název veličiny</t>
+  </si>
+  <si>
+    <t>Wt</t>
+  </si>
+  <si>
+    <t>S235</t>
+  </si>
+  <si>
+    <t>S355</t>
+  </si>
+  <si>
+    <t>S470</t>
+  </si>
+  <si>
+    <t>S275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +217,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -533,44 +570,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -580,13 +973,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,15 +1014,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,7 +1539,7 @@
   <dimension ref="B1:AK11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,320 +1560,320 @@
   <sheetData>
     <row r="1" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="4" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="4" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="4" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="5"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="30">
         <v>80</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:37" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="28" t="s">
+    <row r="5" spans="2:37" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>80</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="8">
         <v>46</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="8">
         <v>45872</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="8">
         <v>45693</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="16">
         <v>764</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="23">
         <v>358</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="16">
         <v>80.14</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="8">
         <v>45736</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="8">
         <v>23.22</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="8">
         <v>32.4</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="8">
         <v>8.4890000000000008</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="8">
         <v>3.6909999999999998</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="8">
         <v>5.8179999999999996</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="8">
         <v>45787</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="8">
         <v>0.69769999999999999</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="23">
         <v>118</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="25">
         <v>1</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="9">
         <v>1</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="9">
         <v>1</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="27">
         <v>1</v>
       </c>
-      <c r="AA5" s="33">
+      <c r="AA5" s="25">
         <v>1</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="9">
         <v>1</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="9">
         <v>1</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="10">
         <v>1</v>
       </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
     </row>
     <row r="6" spans="2:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="13"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1322,4 +1892,463 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271F717F-DA35-4E81-AAE9-F1F0B0432674}">
+  <dimension ref="C2:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="53">
+        <v>180</v>
+      </c>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="39">
+        <v>80</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="63">
+        <v>180</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="60">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>182</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>183</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="61">
+        <v>184</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="65">
+        <v>180</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="86">
+        <v>180</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="84">
+        <v>180</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6">
+        <v>181</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6">
+        <v>182</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6">
+        <v>183</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6">
+        <v>184</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6">
+        <v>185</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6">
+        <v>186</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6">
+        <v>187</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="6">
+        <v>188</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="81">
+        <v>189</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="37"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77">
+        <v>1</v>
+      </c>
+      <c r="F32" s="78"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68">
+        <v>1</v>
+      </c>
+      <c r="F33" s="70"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68">
+        <v>1</v>
+      </c>
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73">
+        <v>1</v>
+      </c>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77">
+        <v>1</v>
+      </c>
+      <c r="F38" s="78"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68">
+        <v>1</v>
+      </c>
+      <c r="F39" s="70"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68">
+        <v>1</v>
+      </c>
+      <c r="F40" s="70"/>
+    </row>
+    <row r="41" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73">
+        <v>1</v>
+      </c>
+      <c r="F41" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>